--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/L1cam-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/L1cam-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H2">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I2">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J2">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.013267</v>
+        <v>0.03692766666666667</v>
       </c>
       <c r="N2">
-        <v>0.039801</v>
+        <v>0.110783</v>
       </c>
       <c r="O2">
-        <v>0.00208234450613889</v>
+        <v>0.006058202227135638</v>
       </c>
       <c r="P2">
-        <v>0.00208234450613889</v>
+        <v>0.006058202227135636</v>
       </c>
       <c r="Q2">
-        <v>0.05932102455166667</v>
+        <v>0.3288834000294446</v>
       </c>
       <c r="R2">
-        <v>0.533889220965</v>
+        <v>2.959950600265</v>
       </c>
       <c r="S2">
-        <v>0.0001732613525591464</v>
+        <v>0.0007542492077457812</v>
       </c>
       <c r="T2">
-        <v>0.0001732613525591464</v>
+        <v>0.000754249207745781</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H3">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I3">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J3">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>17.37879</v>
       </c>
       <c r="O3">
-        <v>0.9092391618261221</v>
+        <v>0.9503644447516544</v>
       </c>
       <c r="P3">
-        <v>0.9092391618261221</v>
+        <v>0.9503644447516543</v>
       </c>
       <c r="Q3">
-        <v>25.90205342248333</v>
+        <v>51.59271317438333</v>
       </c>
       <c r="R3">
-        <v>233.11848080235</v>
+        <v>464.33441856945</v>
       </c>
       <c r="S3">
-        <v>0.07565319115704049</v>
+        <v>0.118320848768135</v>
       </c>
       <c r="T3">
-        <v>0.07565319115704047</v>
+        <v>0.118320848768135</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H4">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I4">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J4">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.5062776666666666</v>
+        <v>0.006821</v>
       </c>
       <c r="N4">
-        <v>1.518833</v>
+        <v>0.020463</v>
       </c>
       <c r="O4">
-        <v>0.07946367059351396</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="P4">
-        <v>0.07946367059351396</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="Q4">
-        <v>2.263730300316111</v>
+        <v>0.06074886051833334</v>
       </c>
       <c r="R4">
-        <v>20.373572702845</v>
+        <v>0.546739744665</v>
       </c>
       <c r="S4">
-        <v>0.006611770053301828</v>
+        <v>0.0001393192235099421</v>
       </c>
       <c r="T4">
-        <v>0.006611770053301827</v>
+        <v>0.0001393192235099421</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H5">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I5">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J5">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.05870933333333334</v>
+        <v>0.208416</v>
       </c>
       <c r="N5">
-        <v>0.176128</v>
+        <v>0.625248</v>
       </c>
       <c r="O5">
-        <v>0.009214823074225033</v>
+        <v>0.03419187805089322</v>
       </c>
       <c r="P5">
-        <v>0.009214823074225033</v>
+        <v>0.03419187805089321</v>
       </c>
       <c r="Q5">
-        <v>0.2625083141688889</v>
+        <v>1.85618450576</v>
       </c>
       <c r="R5">
-        <v>2.36257482752</v>
+        <v>16.70566055184</v>
       </c>
       <c r="S5">
-        <v>0.0007667188136865242</v>
+        <v>0.004256905920986381</v>
       </c>
       <c r="T5">
-        <v>0.000766718813686524</v>
+        <v>0.004256905920986379</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4515893333333334</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H6">
-        <v>1.354768</v>
+        <v>26.718455</v>
       </c>
       <c r="I6">
-        <v>0.008403435674603098</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J6">
-        <v>0.008403435674603098</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.013267</v>
+        <v>0.050388</v>
       </c>
       <c r="N6">
-        <v>0.039801</v>
+        <v>0.151164</v>
       </c>
       <c r="O6">
-        <v>0.00208234450613889</v>
+        <v>0.008266449558711458</v>
       </c>
       <c r="P6">
-        <v>0.00208234450613889</v>
+        <v>0.008266449558711456</v>
       </c>
       <c r="Q6">
-        <v>0.005991235685333334</v>
+        <v>0.44876317018</v>
       </c>
       <c r="R6">
-        <v>0.05392112116800001</v>
+        <v>4.03886853162</v>
       </c>
       <c r="S6">
-        <v>1.749884810970132E-05</v>
+        <v>0.001029177105148653</v>
       </c>
       <c r="T6">
-        <v>1.749884810970132E-05</v>
+        <v>0.001029177105148653</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H7">
         <v>1.354768</v>
       </c>
       <c r="I7">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J7">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>5.792929999999999</v>
+        <v>0.03692766666666667</v>
       </c>
       <c r="N7">
-        <v>17.37879</v>
+        <v>0.110783</v>
       </c>
       <c r="O7">
-        <v>0.9092391618261221</v>
+        <v>0.006058202227135638</v>
       </c>
       <c r="P7">
-        <v>0.9092391618261221</v>
+        <v>0.006058202227135636</v>
       </c>
       <c r="Q7">
-        <v>2.616025396746667</v>
+        <v>0.01667614037155556</v>
       </c>
       <c r="R7">
-        <v>23.54422857072</v>
+        <v>0.150085263344</v>
       </c>
       <c r="S7">
-        <v>0.007640732809235854</v>
+        <v>3.824445278289244E-05</v>
       </c>
       <c r="T7">
-        <v>0.007640732809235854</v>
+        <v>3.824445278289243E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H8">
         <v>1.354768</v>
       </c>
       <c r="I8">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J8">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5062776666666666</v>
+        <v>5.792929999999999</v>
       </c>
       <c r="N8">
-        <v>1.518833</v>
+        <v>17.37879</v>
       </c>
       <c r="O8">
-        <v>0.07946367059351396</v>
+        <v>0.9503644447516544</v>
       </c>
       <c r="P8">
-        <v>0.07946367059351396</v>
+        <v>0.9503644447516543</v>
       </c>
       <c r="Q8">
-        <v>0.2286295939715556</v>
+        <v>2.616025396746666</v>
       </c>
       <c r="R8">
-        <v>2.057666345744</v>
+        <v>23.54422857072</v>
       </c>
       <c r="S8">
-        <v>0.0006677678443004443</v>
+        <v>0.005999497337847893</v>
       </c>
       <c r="T8">
-        <v>0.0006677678443004443</v>
+        <v>0.005999497337847892</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,51 +977,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H9">
         <v>1.354768</v>
       </c>
       <c r="I9">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J9">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05870933333333334</v>
+        <v>0.006821</v>
       </c>
       <c r="N9">
-        <v>0.176128</v>
+        <v>0.020463</v>
       </c>
       <c r="O9">
-        <v>0.009214823074225033</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="P9">
-        <v>0.009214823074225033</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="Q9">
-        <v>0.02651250870044445</v>
+        <v>0.003080290842666667</v>
       </c>
       <c r="R9">
-        <v>0.238612578304</v>
+        <v>0.027722617584</v>
       </c>
       <c r="S9">
-        <v>7.743617295709843E-05</v>
+        <v>7.064226797399672E-06</v>
       </c>
       <c r="T9">
-        <v>7.743617295709843E-05</v>
+        <v>7.064226797399671E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.212987666666667</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H10">
-        <v>18.638963</v>
+        <v>1.354768</v>
       </c>
       <c r="I10">
-        <v>0.1156148703038507</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J10">
-        <v>0.1156148703038507</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.013267</v>
+        <v>0.208416</v>
       </c>
       <c r="N10">
-        <v>0.039801</v>
+        <v>0.625248</v>
       </c>
       <c r="O10">
-        <v>0.00208234450613889</v>
+        <v>0.03419187805089322</v>
       </c>
       <c r="P10">
-        <v>0.00208234450613889</v>
+        <v>0.03419187805089321</v>
       </c>
       <c r="Q10">
-        <v>0.08242770737366667</v>
+        <v>0.09411844249600002</v>
       </c>
       <c r="R10">
-        <v>0.7418493663629999</v>
+        <v>0.847065982464</v>
       </c>
       <c r="S10">
-        <v>0.0002407499900051838</v>
+        <v>0.000215847807096738</v>
       </c>
       <c r="T10">
-        <v>0.0002407499900051838</v>
+        <v>0.000215847807096738</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.212987666666667</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H11">
-        <v>18.638963</v>
+        <v>1.354768</v>
       </c>
       <c r="I11">
-        <v>0.1156148703038507</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J11">
-        <v>0.1156148703038507</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.792929999999999</v>
+        <v>0.050388</v>
       </c>
       <c r="N11">
-        <v>17.37879</v>
+        <v>0.151164</v>
       </c>
       <c r="O11">
-        <v>0.9092391618261221</v>
+        <v>0.008266449558711458</v>
       </c>
       <c r="P11">
-        <v>0.9092391618261221</v>
+        <v>0.008266449558711456</v>
       </c>
       <c r="Q11">
-        <v>35.99140264386333</v>
+        <v>0.022754683328</v>
       </c>
       <c r="R11">
-        <v>323.92262379477</v>
+        <v>0.204792149952</v>
       </c>
       <c r="S11">
-        <v>0.105121567769709</v>
+        <v>5.21847617456934E-05</v>
       </c>
       <c r="T11">
-        <v>0.105121567769709</v>
+        <v>5.218476174569339E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H12">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="I12">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J12">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.5062776666666666</v>
+        <v>0.03692766666666667</v>
       </c>
       <c r="N12">
-        <v>1.518833</v>
+        <v>0.110783</v>
       </c>
       <c r="O12">
-        <v>0.07946367059351396</v>
+        <v>0.006058202227135638</v>
       </c>
       <c r="P12">
-        <v>0.07946367059351396</v>
+        <v>0.006058202227135636</v>
       </c>
       <c r="Q12">
-        <v>3.145496898908778</v>
+        <v>0.2873582019351111</v>
       </c>
       <c r="R12">
-        <v>28.309472090179</v>
+        <v>2.586223817416</v>
       </c>
       <c r="S12">
-        <v>0.00918718196953703</v>
+        <v>0.0006590168312824708</v>
       </c>
       <c r="T12">
-        <v>0.00918718196953703</v>
+        <v>0.0006590168312824706</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,51 +1225,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H13">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="I13">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J13">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.05870933333333334</v>
+        <v>5.792929999999999</v>
       </c>
       <c r="N13">
-        <v>0.176128</v>
+        <v>17.37879</v>
       </c>
       <c r="O13">
-        <v>0.009214823074225033</v>
+        <v>0.9503644447516544</v>
       </c>
       <c r="P13">
-        <v>0.009214823074225033</v>
+        <v>0.9503644447516543</v>
       </c>
       <c r="Q13">
-        <v>0.3647603639182223</v>
+        <v>45.07855759645333</v>
       </c>
       <c r="R13">
-        <v>3.282843275264</v>
+        <v>405.70701836808</v>
       </c>
       <c r="S13">
-        <v>0.001065370574599458</v>
+        <v>0.1033815216894604</v>
       </c>
       <c r="T13">
-        <v>0.001065370574599458</v>
+        <v>0.1033815216894604</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.879176</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H14">
-        <v>11.637528</v>
+        <v>23.344952</v>
       </c>
       <c r="I14">
-        <v>0.072185952103528</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J14">
-        <v>0.072185952103528</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,43 +1305,43 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.013267</v>
+        <v>0.006821</v>
       </c>
       <c r="N14">
-        <v>0.039801</v>
+        <v>0.020463</v>
       </c>
       <c r="O14">
-        <v>0.00208234450613889</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="P14">
-        <v>0.00208234450613889</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="Q14">
-        <v>0.05146502799199999</v>
+        <v>0.05307863919733333</v>
       </c>
       <c r="R14">
-        <v>0.4631852519279999</v>
+        <v>0.477707752776</v>
       </c>
       <c r="S14">
-        <v>0.0001503160207831866</v>
+        <v>0.0001217286173739039</v>
       </c>
       <c r="T14">
-        <v>0.0001503160207831866</v>
+        <v>0.0001217286173739039</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.879176</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H15">
-        <v>11.637528</v>
+        <v>23.344952</v>
       </c>
       <c r="I15">
-        <v>0.072185952103528</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J15">
-        <v>0.072185952103528</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.792929999999999</v>
+        <v>0.208416</v>
       </c>
       <c r="N15">
-        <v>17.37879</v>
+        <v>0.625248</v>
       </c>
       <c r="O15">
-        <v>0.9092391618261221</v>
+        <v>0.03419187805089322</v>
       </c>
       <c r="P15">
-        <v>0.9092391618261221</v>
+        <v>0.03419187805089321</v>
       </c>
       <c r="Q15">
-        <v>22.47179502568</v>
+        <v>1.621820505344</v>
       </c>
       <c r="R15">
-        <v>202.24615523112</v>
+        <v>14.596384548096</v>
       </c>
       <c r="S15">
-        <v>0.06563429458623239</v>
+        <v>0.003719424060782812</v>
       </c>
       <c r="T15">
-        <v>0.06563429458623239</v>
+        <v>0.003719424060782811</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.879176</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H16">
-        <v>11.637528</v>
+        <v>23.344952</v>
       </c>
       <c r="I16">
-        <v>0.072185952103528</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J16">
-        <v>0.072185952103528</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5062776666666666</v>
+        <v>0.050388</v>
       </c>
       <c r="N16">
-        <v>1.518833</v>
+        <v>0.151164</v>
       </c>
       <c r="O16">
-        <v>0.07946367059351396</v>
+        <v>0.008266449558711458</v>
       </c>
       <c r="P16">
-        <v>0.07946367059351396</v>
+        <v>0.008266449558711456</v>
       </c>
       <c r="Q16">
-        <v>1.963940173869333</v>
+        <v>0.392101813792</v>
       </c>
       <c r="R16">
-        <v>17.675461564824</v>
+        <v>3.528916324128</v>
       </c>
       <c r="S16">
-        <v>0.005736160719433925</v>
+        <v>0.0008992320146952457</v>
       </c>
       <c r="T16">
-        <v>0.005736160719433925</v>
+        <v>0.0008992320146952455</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H17">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="I17">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J17">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.05870933333333334</v>
+        <v>0.03692766666666667</v>
       </c>
       <c r="N17">
-        <v>0.176128</v>
+        <v>0.110783</v>
       </c>
       <c r="O17">
-        <v>0.009214823074225033</v>
+        <v>0.006058202227135638</v>
       </c>
       <c r="P17">
-        <v>0.009214823074225033</v>
+        <v>0.006058202227135636</v>
       </c>
       <c r="Q17">
-        <v>0.2277438368426667</v>
+        <v>0.1437434289628889</v>
       </c>
       <c r="R17">
-        <v>2.049694531584</v>
+        <v>1.293690860666</v>
       </c>
       <c r="S17">
-        <v>0.0006651807770784929</v>
+        <v>0.0003296559431221351</v>
       </c>
       <c r="T17">
-        <v>0.0006651807770784929</v>
+        <v>0.0003296559431221349</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>32.24961033333334</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H18">
-        <v>96.74883100000001</v>
+        <v>11.677702</v>
       </c>
       <c r="I18">
-        <v>0.6001194137310197</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J18">
-        <v>0.6001194137310197</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.013267</v>
+        <v>5.792929999999999</v>
       </c>
       <c r="N18">
-        <v>0.039801</v>
+        <v>17.37879</v>
       </c>
       <c r="O18">
-        <v>0.00208234450613889</v>
+        <v>0.9503644447516544</v>
       </c>
       <c r="P18">
-        <v>0.00208234450613889</v>
+        <v>0.9503644447516543</v>
       </c>
       <c r="Q18">
-        <v>0.4278555802923333</v>
+        <v>22.54937008228666</v>
       </c>
       <c r="R18">
-        <v>3.850700222631</v>
+        <v>202.94433074058</v>
       </c>
       <c r="S18">
-        <v>0.001249655364210081</v>
+        <v>0.05171390382794768</v>
       </c>
       <c r="T18">
-        <v>0.001249655364210081</v>
+        <v>0.05171390382794767</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,51 +1597,51 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>32.24961033333334</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H19">
-        <v>96.74883100000001</v>
+        <v>11.677702</v>
       </c>
       <c r="I19">
-        <v>0.6001194137310197</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J19">
-        <v>0.6001194137310197</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>5.792929999999999</v>
+        <v>0.006821</v>
       </c>
       <c r="N19">
-        <v>17.37879</v>
+        <v>0.020463</v>
       </c>
       <c r="O19">
-        <v>0.9092391618261221</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="P19">
-        <v>0.9092391618261221</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="Q19">
-        <v>186.8197351882767</v>
+        <v>0.02655120178066667</v>
       </c>
       <c r="R19">
-        <v>1681.37761669449</v>
+        <v>0.238960816026</v>
       </c>
       <c r="S19">
-        <v>0.5456520727363762</v>
+        <v>6.089155885025905E-05</v>
       </c>
       <c r="T19">
-        <v>0.5456520727363762</v>
+        <v>6.089155885025903E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>32.24961033333334</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H20">
-        <v>96.74883100000001</v>
+        <v>11.677702</v>
       </c>
       <c r="I20">
-        <v>0.6001194137310197</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J20">
-        <v>0.6001194137310197</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.5062776666666666</v>
+        <v>0.208416</v>
       </c>
       <c r="N20">
-        <v>1.518833</v>
+        <v>0.625248</v>
       </c>
       <c r="O20">
-        <v>0.07946367059351396</v>
+        <v>0.03419187805089322</v>
       </c>
       <c r="P20">
-        <v>0.07946367059351396</v>
+        <v>0.03419187805089321</v>
       </c>
       <c r="Q20">
-        <v>16.32725747046922</v>
+        <v>0.8112733133440001</v>
       </c>
       <c r="R20">
-        <v>146.945317234223</v>
+        <v>7.301459820096</v>
       </c>
       <c r="S20">
-        <v>0.04768769140949447</v>
+        <v>0.001860544660509543</v>
       </c>
       <c r="T20">
-        <v>0.04768769140949447</v>
+        <v>0.001860544660509542</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>32.24961033333334</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H21">
-        <v>96.74883100000001</v>
+        <v>11.677702</v>
       </c>
       <c r="I21">
-        <v>0.6001194137310197</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J21">
-        <v>0.6001194137310197</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.05870933333333334</v>
+        <v>0.050388</v>
       </c>
       <c r="N21">
-        <v>0.176128</v>
+        <v>0.151164</v>
       </c>
       <c r="O21">
-        <v>0.009214823074225033</v>
+        <v>0.008266449558711458</v>
       </c>
       <c r="P21">
-        <v>0.009214823074225033</v>
+        <v>0.008266449558711456</v>
       </c>
       <c r="Q21">
-        <v>1.893353122929778</v>
+        <v>0.196138682792</v>
       </c>
       <c r="R21">
-        <v>17.040178106368</v>
+        <v>1.765248145128</v>
       </c>
       <c r="S21">
-        <v>0.005529994220939</v>
+        <v>0.0004498173093896574</v>
       </c>
       <c r="T21">
-        <v>0.005529994220939</v>
+        <v>0.0004498173093896572</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.473970333333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H22">
-        <v>19.421911</v>
+        <v>130.486774</v>
       </c>
       <c r="I22">
-        <v>0.1204713868104106</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J22">
-        <v>0.1204713868104106</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1801,33 +1801,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.013267</v>
+        <v>0.03692766666666667</v>
       </c>
       <c r="N22">
-        <v>0.039801</v>
+        <v>0.110783</v>
       </c>
       <c r="O22">
-        <v>0.00208234450613889</v>
+        <v>0.006058202227135638</v>
       </c>
       <c r="P22">
-        <v>0.00208234450613889</v>
+        <v>0.006058202227135636</v>
       </c>
       <c r="Q22">
-        <v>0.08589016441233334</v>
+        <v>1.606190698226889</v>
       </c>
       <c r="R22">
-        <v>0.773011479711</v>
+        <v>14.455716284042</v>
       </c>
       <c r="S22">
-        <v>0.0002508629304715916</v>
+        <v>0.003683579230565644</v>
       </c>
       <c r="T22">
-        <v>0.0002508629304715916</v>
+        <v>0.003683579230565643</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.473970333333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H23">
-        <v>19.421911</v>
+        <v>130.486774</v>
       </c>
       <c r="I23">
-        <v>0.1204713868104106</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J23">
-        <v>0.1204713868104106</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,27 +1869,27 @@
         <v>17.37879</v>
       </c>
       <c r="O23">
-        <v>0.9092391618261221</v>
+        <v>0.9503644447516544</v>
       </c>
       <c r="P23">
-        <v>0.9092391618261221</v>
+        <v>0.9503644447516543</v>
       </c>
       <c r="Q23">
-        <v>37.50325696307667</v>
+        <v>251.9669159026066</v>
       </c>
       <c r="R23">
-        <v>337.52931266769</v>
+        <v>2267.70224312346</v>
       </c>
       <c r="S23">
-        <v>0.1095373027675283</v>
+        <v>0.5778517452710424</v>
       </c>
       <c r="T23">
-        <v>0.1095373027675283</v>
+        <v>0.5778517452710424</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,108 +1907,480 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.473970333333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H24">
-        <v>19.421911</v>
+        <v>130.486774</v>
       </c>
       <c r="I24">
-        <v>0.1204713868104106</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J24">
-        <v>0.1204713868104106</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.5062776666666666</v>
+        <v>0.006821</v>
       </c>
       <c r="N24">
-        <v>1.518833</v>
+        <v>0.020463</v>
       </c>
       <c r="O24">
-        <v>0.07946367059351396</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="P24">
-        <v>0.07946367059351396</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="Q24">
-        <v>3.277626594429222</v>
+        <v>0.2966834284846666</v>
       </c>
       <c r="R24">
-        <v>29.498639349863</v>
+        <v>2.670150856362</v>
       </c>
       <c r="S24">
-        <v>0.00957309859744627</v>
+        <v>0.0006804029661145191</v>
       </c>
       <c r="T24">
-        <v>0.00957309859744627</v>
+        <v>0.0006804029661145189</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>43.49559133333333</v>
+      </c>
+      <c r="H25">
+        <v>130.486774</v>
+      </c>
+      <c r="I25">
+        <v>0.6080317382054886</v>
+      </c>
+      <c r="J25">
+        <v>0.6080317382054886</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.208416</v>
+      </c>
+      <c r="N25">
+        <v>0.625248</v>
+      </c>
+      <c r="O25">
+        <v>0.03419187805089322</v>
+      </c>
+      <c r="P25">
+        <v>0.03419187805089321</v>
+      </c>
+      <c r="Q25">
+        <v>9.065177163328</v>
+      </c>
+      <c r="R25">
+        <v>81.586594469952</v>
+      </c>
+      <c r="S25">
+        <v>0.02078974704379469</v>
+      </c>
+      <c r="T25">
+        <v>0.02078974704379469</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>43.49559133333333</v>
+      </c>
+      <c r="H26">
+        <v>130.486774</v>
+      </c>
+      <c r="I26">
+        <v>0.6080317382054886</v>
+      </c>
+      <c r="J26">
+        <v>0.6080317382054886</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.050388</v>
+      </c>
+      <c r="N26">
+        <v>0.151164</v>
+      </c>
+      <c r="O26">
+        <v>0.008266449558711458</v>
+      </c>
+      <c r="P26">
+        <v>0.008266449558711456</v>
+      </c>
+      <c r="Q26">
+        <v>2.191655856104</v>
+      </c>
+      <c r="R26">
+        <v>19.724902704936</v>
+      </c>
+      <c r="S26">
+        <v>0.005026263693971322</v>
+      </c>
+      <c r="T26">
+        <v>0.005026263693971321</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>6.473970333333334</v>
-      </c>
-      <c r="H25">
-        <v>19.421911</v>
-      </c>
-      <c r="I25">
-        <v>0.1204713868104106</v>
-      </c>
-      <c r="J25">
-        <v>0.1204713868104106</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M25">
-        <v>0.05870933333333334</v>
-      </c>
-      <c r="N25">
-        <v>0.176128</v>
-      </c>
-      <c r="O25">
-        <v>0.009214823074225033</v>
-      </c>
-      <c r="P25">
-        <v>0.009214823074225033</v>
-      </c>
-      <c r="Q25">
-        <v>0.3800824822897778</v>
-      </c>
-      <c r="R25">
-        <v>3.420742340608</v>
-      </c>
-      <c r="S25">
-        <v>0.001110122514964461</v>
-      </c>
-      <c r="T25">
-        <v>0.001110122514964461</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>7.007517</v>
+      </c>
+      <c r="H27">
+        <v>21.022551</v>
+      </c>
+      <c r="I27">
+        <v>0.09795918646930096</v>
+      </c>
+      <c r="J27">
+        <v>0.09795918646930096</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.03692766666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.110783</v>
+      </c>
+      <c r="O27">
+        <v>0.006058202227135638</v>
+      </c>
+      <c r="P27">
+        <v>0.006058202227135636</v>
+      </c>
+      <c r="Q27">
+        <v>0.258771251937</v>
+      </c>
+      <c r="R27">
+        <v>2.328941267433</v>
+      </c>
+      <c r="S27">
+        <v>0.0005934565616367144</v>
+      </c>
+      <c r="T27">
+        <v>0.0005934565616367142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>7.007517</v>
+      </c>
+      <c r="H28">
+        <v>21.022551</v>
+      </c>
+      <c r="I28">
+        <v>0.09795918646930096</v>
+      </c>
+      <c r="J28">
+        <v>0.09795918646930096</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>5.792929999999999</v>
+      </c>
+      <c r="N28">
+        <v>17.37879</v>
+      </c>
+      <c r="O28">
+        <v>0.9503644447516544</v>
+      </c>
+      <c r="P28">
+        <v>0.9503644447516543</v>
+      </c>
+      <c r="Q28">
+        <v>40.59405545481</v>
+      </c>
+      <c r="R28">
+        <v>365.34649909329</v>
+      </c>
+      <c r="S28">
+        <v>0.09309692785722098</v>
+      </c>
+      <c r="T28">
+        <v>0.09309692785722097</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>7.007517</v>
+      </c>
+      <c r="H29">
+        <v>21.022551</v>
+      </c>
+      <c r="I29">
+        <v>0.09795918646930096</v>
+      </c>
+      <c r="J29">
+        <v>0.09795918646930096</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.006821</v>
+      </c>
+      <c r="N29">
+        <v>0.020463</v>
+      </c>
+      <c r="O29">
+        <v>0.001119025411605359</v>
+      </c>
+      <c r="P29">
+        <v>0.001119025411605359</v>
+      </c>
+      <c r="Q29">
+        <v>0.047798273457</v>
+      </c>
+      <c r="R29">
+        <v>0.430184461113</v>
+      </c>
+      <c r="S29">
+        <v>0.0001096188189593357</v>
+      </c>
+      <c r="T29">
+        <v>0.0001096188189593356</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>7.007517</v>
+      </c>
+      <c r="H30">
+        <v>21.022551</v>
+      </c>
+      <c r="I30">
+        <v>0.09795918646930096</v>
+      </c>
+      <c r="J30">
+        <v>0.09795918646930096</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.208416</v>
+      </c>
+      <c r="N30">
+        <v>0.625248</v>
+      </c>
+      <c r="O30">
+        <v>0.03419187805089322</v>
+      </c>
+      <c r="P30">
+        <v>0.03419187805089321</v>
+      </c>
+      <c r="Q30">
+        <v>1.460478663072</v>
+      </c>
+      <c r="R30">
+        <v>13.144307967648</v>
+      </c>
+      <c r="S30">
+        <v>0.003349408557723047</v>
+      </c>
+      <c r="T30">
+        <v>0.003349408557723046</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>7.007517</v>
+      </c>
+      <c r="H31">
+        <v>21.022551</v>
+      </c>
+      <c r="I31">
+        <v>0.09795918646930096</v>
+      </c>
+      <c r="J31">
+        <v>0.09795918646930096</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.050388</v>
+      </c>
+      <c r="N31">
+        <v>0.151164</v>
+      </c>
+      <c r="O31">
+        <v>0.008266449558711458</v>
+      </c>
+      <c r="P31">
+        <v>0.008266449558711456</v>
+      </c>
+      <c r="Q31">
+        <v>0.353094766596</v>
+      </c>
+      <c r="R31">
+        <v>3.177852899364</v>
+      </c>
+      <c r="S31">
+        <v>0.0008097746737608864</v>
+      </c>
+      <c r="T31">
+        <v>0.0008097746737608861</v>
       </c>
     </row>
   </sheetData>
